--- a/Documentación/Sprints/AnalisisDiseño_Sprint4.xlsx
+++ b/Documentación/Sprints/AnalisisDiseño_Sprint4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Paula/ICI 2013/VIII Semestre/Taller Ing Software/RedDebate/Documentación/Sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Paula/ICI 2013/VIII Semestre/Taller Ing Software/RedDebate/Documentación/Sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -112,8 +112,53 @@
     <t>Participante</t>
   </si>
   <si>
+    <t>SPRINT 4</t>
+  </si>
+  <si>
+    <t>publicar un argumento en el debate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Este caso de uso comienza cuando el usuario define postura en un debate público abierto  </t>
+  </si>
+  <si>
+    <t>2. El sistema habilitará la sección de argumentos del debate correspondiente a la postura antes seleccionada</t>
+  </si>
+  <si>
+    <t>3. El usuario oprime el botón de agregar argumento</t>
+  </si>
+  <si>
+    <t>4. El sistema un campo con entrada de texto</t>
+  </si>
+  <si>
+    <t>5. El usuario escribe un argumento y presiona el botón publicar</t>
+  </si>
+  <si>
+    <t>6. El sistema guarda en la base de datos el argumeto definido por el usuario en el debate seleccionado.</t>
+  </si>
+  <si>
+    <t>5. El usuario presiona el botón publicar sin escribir ningun texto en el campo de argumentar</t>
+  </si>
+  <si>
+    <t>El sistema enviará un mensaje error indicando que no se puede publicar un argumento vacío.</t>
+  </si>
+  <si>
+    <t>agregar_arg()</t>
+  </si>
+  <si>
+    <t>publicar_arg()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capturar el argumento del usuario en un debate </t>
+  </si>
+  <si>
+    <t>(1) Se crea la instancia argumento</t>
+  </si>
+  <si>
+    <t>Solicitar el despliegue de la entrada de texto</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">El </t>
+      <t xml:space="preserve">Una vez definido postura, el </t>
     </r>
     <r>
       <rPr>
@@ -130,64 +175,18 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> llega el inicio del sistema y selecciona el botón "ver debate" donde se desplegará una nueva ventana con la información del debate. En esta ventana existirán dos botones, uno para definir una postura a favor y otro en contra. El participante debe seleccionar uno de los dos botones para comenzar su participación en el debate seleccionado.</t>
+      <t xml:space="preserve"> debe seleccionar el botón "Argumentar" que estará en la sección correspondiente a su postura. Luego para publicar el argumento se debe seleccionar el botón "Publicar".</t>
     </r>
   </si>
   <si>
-    <t>el usuario ingresó al sistema
-el debate existe</t>
-  </si>
-  <si>
-    <t>El sistema conoce el id del usuario y debate</t>
-  </si>
-  <si>
-    <t>SPRINT 4</t>
-  </si>
-  <si>
-    <t>Argumentar</t>
-  </si>
-  <si>
-    <t>publicar un argumento en el debate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Este caso de uso comienza cuando el usuario define postura en un debate público abierto  </t>
-  </si>
-  <si>
-    <t>2. El sistema habilitará la sección de argumentos del debate correspondiente a la postura antes seleccionada</t>
-  </si>
-  <si>
-    <t>3. El usuario oprime el botón de agregar argumento</t>
-  </si>
-  <si>
-    <t>4. El sistema un campo con entrada de texto</t>
-  </si>
-  <si>
-    <t>5. El usuario escribe un argumento y presiona el botón publicar</t>
-  </si>
-  <si>
-    <t>6. El sistema guarda en la base de datos el argumeto definido por el usuario en el debate seleccionado.</t>
-  </si>
-  <si>
-    <t>5. El usuario presiona el botón publicar sin escribir ningun texto en el campo de argumentar</t>
-  </si>
-  <si>
-    <t>El sistema enviará un mensaje error indicando que no se puede publicar un argumento vacío.</t>
-  </si>
-  <si>
-    <t>agregar_arg()</t>
-  </si>
-  <si>
-    <t>Capturar el debate 
-Solicitar el despliegue de la entrada de texto</t>
-  </si>
-  <si>
-    <t>publicar_arg()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capturar el argumento del usuario en un debate </t>
-  </si>
-  <si>
-    <t>(1) Se crea la instancia argumento</t>
+    <t>El participante tiene una postura</t>
+  </si>
+  <si>
+    <t>Argumento</t>
+  </si>
+  <si>
+    <t>El sistema conoce el id del usuario y debate
+El usuario ya tiene una postura definida</t>
   </si>
 </sst>
 </file>
@@ -614,6 +613,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -637,12 +642,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,16 +661,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>417287</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>62475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>93486</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -688,8 +687,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6644640" y="812800"/>
-          <a:ext cx="3395486" cy="2794000"/>
+          <a:off x="7538358" y="1214546"/>
+          <a:ext cx="5252356" cy="2862153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6644640" y="812799"/>
+          <a:ext cx="3942080" cy="3243769"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -739,7 +781,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -789,6 +831,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596900" y="1066800"/>
+          <a:ext cx="8636000" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1059,13 +1139,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" style="1" customWidth="1"/>
@@ -1076,7 +1156,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1103,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D4" s="32"/>
     </row>
@@ -1121,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="25"/>
     </row>
@@ -1130,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D7" s="25"/>
       <c r="G7"/>
@@ -1140,7 +1220,9 @@
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.2">
@@ -1169,39 +1251,39 @@
       <c r="D12" s="30"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="40"/>
       <c r="D14" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
-        <v>35</v>
+      <c r="B15" s="41" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="34"/>
+      <c r="B16" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="36"/>
       <c r="D16" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1217,17 +1299,17 @@
       <c r="D18" s="30"/>
     </row>
     <row r="19" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="42"/>
+      <c r="B19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="34"/>
       <c r="D19" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="16"/>
     </row>
   </sheetData>
@@ -1250,6 +1332,7 @@
     <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1258,7 +1341,7 @@
   <dimension ref="B1:K45"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1271,7 +1354,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="11"/>
@@ -1284,10 +1367,10 @@
       <c r="K1" s="11"/>
     </row>
     <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="42"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -1299,15 +1382,15 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -1347,7 +1430,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1362,7 +1445,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
@@ -1370,7 +1453,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -1409,16 +1492,14 @@
       <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.2">
@@ -1520,7 +1601,7 @@
   <dimension ref="B1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1530,7 +1611,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="34" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="21" x14ac:dyDescent="0.25">
